--- a/biology/Histoire de la zoologie et de la botanique/Nagamichi_Kuroda/Nagamichi_Kuroda.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nagamichi_Kuroda/Nagamichi_Kuroda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nagamichi Kuroda est un ornithologue japonais, né le 24 novembre 1889 et mort le 16 avril 1978.
 Il faut citer parmi ses travaux Birds of the Island of Java (deux volumes, 1933-1936) et Parrots of the World in Life Colours (1975).
